--- a/data_pdf/korea_dtap_vacc_2015.xlsx
+++ b/data_pdf/korea_dtap_vacc_2015.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="258">
   <si>
     <t>region1</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>광산구</t>
+  </si>
+  <si>
+    <t>대전</t>
   </si>
   <si>
     <t>유성구</t>
@@ -1892,7 +1895,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>32</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>6</v>
@@ -1914,7 +1917,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>31</v>
@@ -1925,10 +1928,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D69" s="5">
         <v>96.5</v>
@@ -1936,10 +1939,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" s="7">
         <v>95.6</v>
@@ -1947,7 +1950,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>6</v>
@@ -1958,7 +1961,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>36</v>
@@ -1969,7 +1972,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>32</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>37</v>
@@ -1991,10 +1994,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D75" s="7">
         <v>96.6</v>
@@ -2002,10 +2005,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D76" s="8">
         <v>96.9</v>
@@ -2013,13 +2016,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D77" s="5">
         <v>96.4</v>
@@ -2027,13 +2030,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D78" s="5">
         <v>96.9</v>
@@ -2041,13 +2044,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D79" s="5">
         <v>96.5</v>
@@ -2055,13 +2058,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D80" s="5">
         <v>96.5</v>
@@ -2069,13 +2072,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D81" s="5">
         <v>96.1</v>
@@ -2083,13 +2086,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D82" s="5">
         <v>95.3</v>
@@ -2097,13 +2100,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D83" s="5">
         <v>93.9</v>
@@ -2111,10 +2114,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D84" s="8">
         <v>95.6</v>
@@ -2122,13 +2125,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D85" s="5">
         <v>95.2</v>
@@ -2136,13 +2139,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D86" s="5">
         <v>95.8</v>
@@ -2150,13 +2153,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D87" s="5">
         <v>94.8</v>
@@ -2164,13 +2167,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D88" s="5">
         <v>95.3</v>
@@ -2178,13 +2181,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D89" s="5">
         <v>95.2</v>
@@ -2192,10 +2195,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D90" s="5">
         <v>96.9</v>
@@ -2203,10 +2206,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D91" s="5">
         <v>96.2</v>
@@ -2214,10 +2217,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D92" s="5">
         <v>96.3</v>
@@ -2225,13 +2228,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D93" s="5">
         <v>94.8</v>
@@ -2239,13 +2242,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D94" s="7">
         <v>96.1</v>
@@ -2253,13 +2256,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D95" s="8">
         <v>95.7</v>
@@ -2267,10 +2270,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D96" s="5">
         <v>92.6</v>
@@ -2278,10 +2281,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D97" s="5">
         <v>96.6</v>
@@ -2289,10 +2292,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D98" s="5">
         <v>95.5</v>
@@ -2300,10 +2303,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D99" s="5">
         <v>97.8</v>
@@ -2311,10 +2314,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D100" s="5">
         <v>97.0</v>
@@ -2322,10 +2325,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D101" s="5">
         <v>96.3</v>
@@ -2333,10 +2336,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D102" s="5">
         <v>96.1</v>
@@ -2344,10 +2347,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D103" s="5">
         <v>95.7</v>
@@ -2355,13 +2358,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D104" s="5">
         <v>94.7</v>
@@ -2369,13 +2372,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D105" s="5">
         <v>95.2</v>
@@ -2383,13 +2386,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D106" s="5">
         <v>94.2</v>
@@ -2397,10 +2400,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D107" s="5">
         <v>95.4</v>
@@ -2408,10 +2411,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D108" s="5">
         <v>96.3</v>
@@ -2419,10 +2422,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D109" s="5">
         <v>97.1</v>
@@ -2430,10 +2433,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D110" s="5">
         <v>95.3</v>
@@ -2441,10 +2444,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D111" s="5">
         <v>96.7</v>
@@ -2452,10 +2455,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D112" s="5">
         <v>96.0</v>
@@ -2463,10 +2466,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D113" s="5">
         <v>95.8</v>
@@ -2474,10 +2477,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D114" s="5">
         <v>95.2</v>
@@ -2485,10 +2488,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D115" s="5">
         <v>93.1</v>
@@ -2496,10 +2499,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D116" s="5">
         <v>96.9</v>
@@ -2507,10 +2510,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D117" s="5">
         <v>93.5</v>
@@ -2518,10 +2521,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D118" s="7">
         <v>93.4</v>
@@ -2529,10 +2532,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D119" s="3">
         <v>96.5</v>
@@ -2540,10 +2543,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D120" s="5">
         <v>97.3</v>
@@ -2551,10 +2554,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D121" s="5">
         <v>97.0</v>
@@ -2562,10 +2565,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D122" s="5">
         <v>96.7</v>
@@ -2573,10 +2576,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D123" s="5">
         <v>99.0</v>
@@ -2584,10 +2587,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D124" s="5">
         <v>96.1</v>
@@ -2595,10 +2598,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D125" s="5">
         <v>97.6</v>
@@ -2606,10 +2609,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D126" s="5">
         <v>95.0</v>
@@ -2617,10 +2620,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D127" s="7">
         <v>96.2</v>
@@ -2628,10 +2631,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D128" s="3">
         <v>96.5</v>
@@ -2639,10 +2642,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D129" s="5">
         <v>96.5</v>
@@ -2650,10 +2653,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D130" s="5">
         <v>97.4</v>
@@ -2661,10 +2664,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D131" s="5">
         <v>95.8</v>
@@ -2672,10 +2675,10 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D132" s="5">
         <v>97.2</v>
@@ -2683,10 +2686,10 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D133" s="5">
         <v>97.8</v>
@@ -2694,10 +2697,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D134" s="5">
         <v>98.4</v>
@@ -2705,10 +2708,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D135" s="5">
         <v>94.4</v>
@@ -2716,10 +2719,10 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D136" s="7">
         <v>95.5</v>
@@ -2727,13 +2730,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D137" s="5">
         <v>96.0</v>
@@ -2741,13 +2744,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D138" s="5">
         <v>96.6</v>
@@ -2755,13 +2758,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D139" s="5">
         <v>96.1</v>
@@ -2769,13 +2772,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D140" s="5">
         <v>97.8</v>
@@ -2783,10 +2786,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D141" s="5">
         <v>97.1</v>
@@ -2794,10 +2797,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D142" s="5">
         <v>96.2</v>
@@ -2805,10 +2808,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D143" s="5">
         <v>96.4</v>
@@ -2816,10 +2819,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D144" s="5">
         <v>96.9</v>
@@ -2827,10 +2830,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D145" s="5">
         <v>97.0</v>
@@ -2838,10 +2841,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D146" s="5">
         <v>98.1</v>
@@ -2849,10 +2852,10 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D147" s="5">
         <v>97.5</v>
@@ -2860,10 +2863,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D148" s="5">
         <v>95.6</v>
@@ -2871,10 +2874,10 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D149" s="5">
         <v>95.6</v>
@@ -2882,10 +2885,10 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D150" s="7">
         <v>97.5</v>
@@ -2893,13 +2896,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D151" s="5">
         <v>96.8</v>
@@ -2907,13 +2910,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D152" s="5">
         <v>97.5</v>
@@ -2921,10 +2924,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D153" s="5">
         <v>96.2</v>
@@ -2932,10 +2935,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D154" s="5">
         <v>95.0</v>
@@ -2943,10 +2946,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D155" s="5">
         <v>96.7</v>
@@ -2954,10 +2957,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D156" s="5">
         <v>96.8</v>
@@ -2965,10 +2968,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D157" s="5">
         <v>95.2</v>
@@ -2976,10 +2979,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D158" s="5">
         <v>96.0</v>
@@ -2987,10 +2990,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D159" s="5">
         <v>96.5</v>
@@ -2998,10 +3001,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D160" s="5">
         <v>95.3</v>
@@ -3009,10 +3012,10 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D161" s="7">
         <v>97.0</v>
@@ -3020,10 +3023,10 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D162" s="3">
         <v>94.5</v>
@@ -3031,10 +3034,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D163" s="5">
         <v>98.4</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D164" s="5">
         <v>95.8</v>
@@ -3053,10 +3056,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D165" s="5">
         <v>96.0</v>
@@ -3064,10 +3067,10 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D166" s="7">
         <v>96.9</v>
@@ -3075,13 +3078,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D167" s="5">
         <v>95.1</v>
@@ -3089,13 +3092,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D168" s="5">
         <v>96.4</v>
@@ -3103,10 +3106,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D169" s="5">
         <v>95.8</v>
@@ -3114,10 +3117,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D170" s="5">
         <v>95.8</v>
@@ -3125,10 +3128,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D171" s="5">
         <v>95.5</v>
@@ -3136,10 +3139,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D172" s="5">
         <v>96.5</v>
@@ -3147,10 +3150,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D173" s="5">
         <v>96.2</v>
@@ -3158,10 +3161,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D174" s="5">
         <v>97.4</v>
@@ -3169,10 +3172,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D175" s="5">
         <v>96.3</v>
@@ -3180,10 +3183,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D176" s="5">
         <v>97.5</v>
@@ -3191,10 +3194,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D177" s="5">
         <v>97.5</v>
@@ -3202,10 +3205,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D178" s="5">
         <v>97.2</v>
@@ -3213,10 +3216,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D179" s="5">
         <v>97.2</v>
@@ -3224,10 +3227,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D180" s="5">
         <v>95.1</v>
@@ -3235,10 +3238,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D181" s="7">
         <v>96.9</v>
@@ -3246,10 +3249,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D182" s="3">
         <v>95.5</v>
@@ -3257,10 +3260,10 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D183" s="5">
         <v>96.0</v>
@@ -3268,10 +3271,10 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D184" s="5">
         <v>96.5</v>
@@ -3279,10 +3282,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D185" s="5">
         <v>96.8</v>
@@ -3290,10 +3293,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D186" s="5">
         <v>95.7</v>
@@ -3301,10 +3304,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D187" s="5">
         <v>92.4</v>
@@ -3312,10 +3315,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D188" s="5">
         <v>97.3</v>
@@ -3323,10 +3326,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D189" s="5">
         <v>96.7</v>
@@ -3334,10 +3337,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D190" s="5">
         <v>93.2</v>
@@ -3345,10 +3348,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D191" s="5">
         <v>97.1</v>
@@ -3356,10 +3359,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D192" s="5">
         <v>96.7</v>
@@ -3367,10 +3370,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D193" s="5">
         <v>98.4</v>
@@ -3378,10 +3381,10 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D194" s="5">
         <v>97.3</v>
@@ -3389,10 +3392,10 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D195" s="5">
         <v>96.9</v>
@@ -3400,10 +3403,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D196" s="7">
         <v>95.8</v>
@@ -3411,10 +3414,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D197" s="3">
         <v>97.3</v>
@@ -3422,10 +3425,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D198" s="5">
         <v>96.2</v>
@@ -3433,10 +3436,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D199" s="5">
         <v>93.4</v>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D200" s="5">
         <v>92.3</v>
@@ -3455,10 +3458,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D201" s="5">
         <v>96.6</v>
@@ -3466,10 +3469,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D202" s="5">
         <v>96.1</v>
@@ -3477,10 +3480,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D203" s="7">
         <v>92.9</v>
@@ -3488,10 +3491,10 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>36</v>
@@ -3502,10 +3505,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>37</v>
@@ -3516,10 +3519,10 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D206" s="5">
         <v>94.6</v>
@@ -3527,10 +3530,10 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D207" s="5">
         <v>96.5</v>
@@ -3538,10 +3541,10 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D208" s="5">
         <v>97.5</v>
@@ -3549,10 +3552,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D209" s="5">
         <v>95.9</v>
@@ -3560,10 +3563,10 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D210" s="5">
         <v>95.6</v>
@@ -3571,10 +3574,10 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D211" s="5">
         <v>97.0</v>
@@ -3582,10 +3585,10 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D212" s="5">
         <v>95.5</v>
@@ -3593,10 +3596,10 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D213" s="5">
         <v>97.4</v>
@@ -3604,10 +3607,10 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D214" s="5">
         <v>96.3</v>
@@ -3615,10 +3618,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D215" s="5">
         <v>93.6</v>
@@ -3626,10 +3629,10 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D216" s="5">
         <v>96.1</v>
@@ -3637,10 +3640,10 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D217" s="5">
         <v>95.4</v>
@@ -3648,10 +3651,10 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D218" s="5">
         <v>98.9</v>
@@ -3659,10 +3662,10 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D219" s="5">
         <v>96.9</v>
@@ -3670,10 +3673,10 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D220" s="5">
         <v>95.5</v>
@@ -3681,10 +3684,10 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D221" s="5">
         <v>96.8</v>
@@ -3692,10 +3695,10 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D222" s="5">
         <v>97.3</v>
@@ -3703,10 +3706,10 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D223" s="5">
         <v>96.7</v>
@@ -3714,10 +3717,10 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D224" s="5">
         <v>96.9</v>
@@ -3725,10 +3728,10 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D225" s="5">
         <v>93.4</v>
@@ -3736,10 +3739,10 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D226" s="5">
         <v>96.7</v>
@@ -3747,10 +3750,10 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D227" s="7">
         <v>94.5</v>
@@ -3758,13 +3761,13 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D228" s="5">
         <v>96.1</v>
@@ -3772,13 +3775,13 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D229" s="5">
         <v>97.5</v>
@@ -3786,13 +3789,13 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D230" s="7">
         <v>94.4</v>
@@ -3800,13 +3803,13 @@
     </row>
     <row r="231">
       <c r="A231" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D231" s="8">
         <v>94.4</v>
@@ -3814,10 +3817,10 @@
     </row>
     <row r="232">
       <c r="A232" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D232" s="5">
         <v>96.1</v>
@@ -3825,10 +3828,10 @@
     </row>
     <row r="233">
       <c r="A233" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D233" s="5">
         <v>96.5</v>
@@ -3836,10 +3839,10 @@
     </row>
     <row r="234">
       <c r="A234" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D234" s="5">
         <v>97.1</v>
@@ -3847,10 +3850,10 @@
     </row>
     <row r="235">
       <c r="A235" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D235" s="5">
         <v>95.9</v>
@@ -3858,10 +3861,10 @@
     </row>
     <row r="236">
       <c r="A236" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D236" s="5">
         <v>96.1</v>
@@ -3869,10 +3872,10 @@
     </row>
     <row r="237">
       <c r="A237" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D237" s="5">
         <v>97.0</v>
@@ -3880,10 +3883,10 @@
     </row>
     <row r="238">
       <c r="A238" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D238" s="5">
         <v>97.4</v>
@@ -3891,10 +3894,10 @@
     </row>
     <row r="239">
       <c r="A239" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D239" s="5">
         <v>95.4</v>
@@ -3902,10 +3905,10 @@
     </row>
     <row r="240">
       <c r="A240" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D240" s="5">
         <v>93.7</v>
@@ -3913,10 +3916,10 @@
     </row>
     <row r="241">
       <c r="A241" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D241" s="5">
         <v>97.1</v>
@@ -3924,10 +3927,10 @@
     </row>
     <row r="242">
       <c r="A242" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D242" s="5">
         <v>94.8</v>
@@ -3935,10 +3938,10 @@
     </row>
     <row r="243">
       <c r="A243" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D243" s="5">
         <v>97.2</v>
@@ -3946,10 +3949,10 @@
     </row>
     <row r="244">
       <c r="A244" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D244" s="5">
         <v>96.9</v>
@@ -3957,10 +3960,10 @@
     </row>
     <row r="245">
       <c r="A245" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D245" s="5">
         <v>91.2</v>
@@ -3968,10 +3971,10 @@
     </row>
     <row r="246">
       <c r="A246" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D246" s="5">
         <v>92.8</v>
@@ -3979,10 +3982,10 @@
     </row>
     <row r="247">
       <c r="A247" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D247" s="5">
         <v>94.9</v>
@@ -3990,10 +3993,10 @@
     </row>
     <row r="248">
       <c r="A248" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D248" s="5">
         <v>95.3</v>
@@ -4001,10 +4004,10 @@
     </row>
     <row r="249">
       <c r="A249" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D249" s="7">
         <v>94.6</v>
@@ -4012,10 +4015,10 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D250" s="3">
         <v>95.5</v>
@@ -4023,14 +4026,34 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D251" s="7">
         <v>95.6</v>
       </c>
+    </row>
+    <row r="252">
+      <c r="C252" s="2"/>
+      <c r="D252" s="3"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="4"/>
+      <c r="D253" s="5"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="4"/>
+      <c r="D254" s="5"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="4"/>
+      <c r="D255" s="5"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="6"/>
+      <c r="D256" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
